--- a/Index of Tools and solutions.xlsx
+++ b/Index of Tools and solutions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bootcamp\aaa My Notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bootcamp\Repositories\data_science_cheatsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57A24E0-4CC0-4242-9C24-0487632A8D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA879D1-EC74-4864-99A9-407C62D7B1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C883D8F4-46D3-4976-9D6A-DFF80EC90395}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="161">
   <si>
     <t>Tool / Technic /Example</t>
   </si>
@@ -241,13 +241,289 @@
   </si>
   <si>
     <t>calculate location of text on a chart</t>
+  </si>
+  <si>
+    <t>mongodb connect to local host</t>
+  </si>
+  <si>
+    <t>python, mongodb</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Assignments\Module 12 - Web-Scraping-and-Document-Databases\1\Activities\05-Ins_PyMongo\Solved</t>
+  </si>
+  <si>
+    <t>Bootcamp Module 12</t>
+  </si>
+  <si>
+    <t>05-Ins_PyMongo</t>
+  </si>
+  <si>
+    <t>mongodb add, update, delete documents</t>
+  </si>
+  <si>
+    <t>Bootcamp Module 13</t>
+  </si>
+  <si>
+    <t>ETL (extract, transform and load)</t>
+  </si>
+  <si>
+    <t>Python data cleaning, date time</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Repositories\Proj2_ETL</t>
+  </si>
+  <si>
+    <t>Proj2_ETL</t>
+  </si>
+  <si>
+    <t>Currency conversion</t>
+  </si>
+  <si>
+    <t>Python pandas</t>
+  </si>
+  <si>
+    <t>String to date</t>
+  </si>
+  <si>
+    <t>Webscraping</t>
+  </si>
+  <si>
+    <t>Beautiful Soup</t>
+  </si>
+  <si>
+    <t>Class activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module 12 </t>
+  </si>
+  <si>
+    <t>lesson 2</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Assignments\Module 12 - Web-Scraping-and-Document-Databases\2\Activities\01-Ins_SoupIntro</t>
+  </si>
+  <si>
+    <t>Bar charts with subtitle</t>
+  </si>
+  <si>
+    <t>matplot lib bar chart, sub title</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Repositories\Web-Scrapping-Challenge\Original-part_2_mars_weather.ipynb</t>
+  </si>
+  <si>
+    <t>Web-Scrapping-Challenge</t>
+  </si>
+  <si>
+    <t>Repositories - Module 12</t>
+  </si>
+  <si>
+    <t>Dataframe data type change</t>
+  </si>
+  <si>
+    <t>data frame type change datetime conversion</t>
+  </si>
+  <si>
+    <t>Data frame from a list of lists</t>
+  </si>
+  <si>
+    <t>data frame creation list of lists</t>
+  </si>
+  <si>
+    <t>javaScript class</t>
+  </si>
+  <si>
+    <t>java class</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Additional Learning\javascript-essential-training-2832077\03\03_08</t>
+  </si>
+  <si>
+    <t>Classes: Object blueprints (linkedin.com)</t>
+  </si>
+  <si>
+    <t>03_08</t>
+  </si>
+  <si>
+    <t>03_13</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Additional Learning\javascript-essential-training-2832077\03\03_13</t>
+  </si>
+  <si>
+    <t>Global objects (linkedin.com)</t>
+  </si>
+  <si>
+    <t>java date object</t>
+  </si>
+  <si>
+    <t>Java date object</t>
+  </si>
+  <si>
+    <t>plotly</t>
+  </si>
+  <si>
+    <t>plotly bar charts, setting titles</t>
+  </si>
+  <si>
+    <t>02_01</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Additional Learning\Linkedin Learning\Plotly</t>
+  </si>
+  <si>
+    <t>Plotly with a panda datafram</t>
+  </si>
+  <si>
+    <t>plotly Pandas</t>
+  </si>
+  <si>
+    <t>02_02</t>
+  </si>
+  <si>
+    <t>Plotly interactive export</t>
+  </si>
+  <si>
+    <t>Plotly html export</t>
+  </si>
+  <si>
+    <t>02_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotly Mapping </t>
+  </si>
+  <si>
+    <t>Plotly Maps</t>
+  </si>
+  <si>
+    <t>03_04</t>
+  </si>
+  <si>
+    <t>03_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotly Charting </t>
+  </si>
+  <si>
+    <t>Plotly Charting  (bars, histograms) full embelishments</t>
+  </si>
+  <si>
+    <t>03_02</t>
+  </si>
+  <si>
+    <t>03_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotly 3D charting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotly Charting  correlation </t>
+  </si>
+  <si>
+    <t>Plotly Charting Sunburst</t>
+  </si>
+  <si>
+    <t>03_06</t>
+  </si>
+  <si>
+    <t>Plotly Sunburst</t>
+  </si>
+  <si>
+    <t>Plotly 3D Sankey</t>
+  </si>
+  <si>
+    <t>Plotly Charting Sankey</t>
+  </si>
+  <si>
+    <t>Plotly plots and sub plots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotly sub plots </t>
+  </si>
+  <si>
+    <t>04_02</t>
+  </si>
+  <si>
+    <t>java sort</t>
+  </si>
+  <si>
+    <t>14_2_07</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Assignments\Module 14 - Interactive Web Vis\2\Activities\07-Ins_Sort_and_Slice</t>
+  </si>
+  <si>
+    <t>java slice</t>
+  </si>
+  <si>
+    <t>Module 14</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D3 read a json</t>
+  </si>
+  <si>
+    <t>D3 Json (like an API call)</t>
+  </si>
+  <si>
+    <t>14_3_01</t>
+  </si>
+  <si>
+    <t>D3 Modifing HTML code</t>
+  </si>
+  <si>
+    <t>D3 select append</t>
+  </si>
+  <si>
+    <t>14_3_03</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Assignments\Module 14 - Interactive Web Vis\3\Activities\03-Ins_D3_Select\Solved</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Assignments\Module 14 - Interactive Web Vis\3\Activities\01-Ins_Intro_to_D3\Solved</t>
+  </si>
+  <si>
+    <t>D3 vote counter</t>
+  </si>
+  <si>
+    <t>D3 updown counter on click</t>
+  </si>
+  <si>
+    <t>14_3_08</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Assignments\Module 14 - Interactive Web Vis\3\Activities\08-Stu_This_Button\Solved</t>
+  </si>
+  <si>
+    <t>D3 dynamically changing data</t>
+  </si>
+  <si>
+    <t>class activity</t>
+  </si>
+  <si>
+    <t>14_3_09</t>
+  </si>
+  <si>
+    <t>C:\Bootcamp\Assignments\Module 14 - Interactive Web Vis\3\Activities\09-Ins_Dropdown_Events\Solved</t>
+  </si>
+  <si>
+    <t>D3, plotly, dropdown, multiple data sets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +535,20 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,14 +571,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,20 +895,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFD3C08-D2B3-45A4-AA25-EAB678E5C10A}">
-  <dimension ref="B3:G34"/>
+  <dimension ref="B3:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="108.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1166,7 +1462,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>67</v>
       </c>
@@ -1186,7 +1482,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>68</v>
       </c>
@@ -1206,8 +1502,573 @@
         <v>64</v>
       </c>
     </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H44" r:id="rId1" display="https://www.linkedin.com/learning/javascript-essential-training/classes-object-blueprints?autoSkip=true&amp;autoplay=true&amp;resume=false&amp;u=42439657" xr:uid="{C74BE9FD-D170-4570-8145-9A239466CD05}"/>
+    <hyperlink ref="H45" r:id="rId2" display="https://www.linkedin.com/learning/javascript-essential-training/global-objects?autoSkip=true&amp;autoplay=true&amp;resume=false&amp;u=42439657" xr:uid="{C702A232-4B55-4CCF-9DAD-D6083325AFE5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>